--- a/BackTest/2020-01-23 BackTest XEM.xlsx
+++ b/BackTest/2020-01-23 BackTest XEM.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N130"/>
+  <dimension ref="A1:M130"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>high_check</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -458,16 +453,13 @@
       <c r="H2" t="n">
         <v>0</v>
       </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -494,16 +486,13 @@
       <c r="H3" t="n">
         <v>0</v>
       </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -528,22 +517,15 @@
         <v>-104325.92562646</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>43.7</v>
-      </c>
-      <c r="K4" t="n">
-        <v>43.7</v>
-      </c>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -570,194 +552,163 @@
       <c r="H5" t="n">
         <v>0</v>
       </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="n">
-        <v>43.7</v>
-      </c>
-      <c r="L5" t="inlineStr">
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>43.71</v>
+      </c>
+      <c r="C6" t="n">
+        <v>43.71</v>
+      </c>
+      <c r="D6" t="n">
+        <v>43.71</v>
+      </c>
+      <c r="E6" t="n">
+        <v>43.71</v>
+      </c>
+      <c r="F6" t="n">
+        <v>9800</v>
+      </c>
+      <c r="G6" t="n">
+        <v>-104325.92562646</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>43.71</v>
+      </c>
+      <c r="C7" t="n">
+        <v>43.71</v>
+      </c>
+      <c r="D7" t="n">
+        <v>43.71</v>
+      </c>
+      <c r="E7" t="n">
+        <v>43.71</v>
+      </c>
+      <c r="F7" t="n">
+        <v>4251.5788</v>
+      </c>
+      <c r="G7" t="n">
+        <v>-104325.92562646</v>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+      <c r="I7" t="n">
+        <v>43.71</v>
+      </c>
+      <c r="J7" t="n">
+        <v>43.71</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>43.71</v>
+      </c>
+      <c r="C8" t="n">
+        <v>43.71</v>
+      </c>
+      <c r="D8" t="n">
+        <v>43.71</v>
+      </c>
+      <c r="E8" t="n">
+        <v>43.71</v>
+      </c>
+      <c r="F8" t="n">
+        <v>124.8125</v>
+      </c>
+      <c r="G8" t="n">
+        <v>-104325.92562646</v>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+      <c r="I8" t="n">
+        <v>43.71</v>
+      </c>
+      <c r="J8" t="n">
+        <v>43.71</v>
+      </c>
+      <c r="K8" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>43.8</v>
+      </c>
+      <c r="C9" t="n">
+        <v>43.84</v>
+      </c>
+      <c r="D9" t="n">
+        <v>43.84</v>
+      </c>
+      <c r="E9" t="n">
+        <v>43.8</v>
+      </c>
+      <c r="F9" t="n">
+        <v>7004</v>
+      </c>
+      <c r="G9" t="n">
+        <v>-97321.92562645998</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="n">
         <v>43.71</v>
       </c>
-      <c r="C6" t="n">
-        <v>43.71</v>
-      </c>
-      <c r="D6" t="n">
-        <v>43.71</v>
-      </c>
-      <c r="E6" t="n">
-        <v>43.71</v>
-      </c>
-      <c r="F6" t="n">
-        <v>9800</v>
-      </c>
-      <c r="G6" t="n">
-        <v>-104325.92562646</v>
-      </c>
-      <c r="H6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>43.71</v>
-      </c>
-      <c r="K6" t="n">
-        <v>43.7</v>
-      </c>
-      <c r="L6" t="inlineStr">
+      <c r="K9" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>43.71</v>
-      </c>
-      <c r="C7" t="n">
-        <v>43.71</v>
-      </c>
-      <c r="D7" t="n">
-        <v>43.71</v>
-      </c>
-      <c r="E7" t="n">
-        <v>43.71</v>
-      </c>
-      <c r="F7" t="n">
-        <v>4251.5788</v>
-      </c>
-      <c r="G7" t="n">
-        <v>-104325.92562646</v>
-      </c>
-      <c r="H7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>43.71</v>
-      </c>
-      <c r="K7" t="n">
-        <v>43.71</v>
-      </c>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="n">
-        <v>43.71</v>
-      </c>
-      <c r="C8" t="n">
-        <v>43.71</v>
-      </c>
-      <c r="D8" t="n">
-        <v>43.71</v>
-      </c>
-      <c r="E8" t="n">
-        <v>43.71</v>
-      </c>
-      <c r="F8" t="n">
-        <v>124.8125</v>
-      </c>
-      <c r="G8" t="n">
-        <v>-104325.92562646</v>
-      </c>
-      <c r="H8" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>43.71</v>
-      </c>
-      <c r="K8" t="n">
-        <v>43.71</v>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="n">
-        <v>43.8</v>
-      </c>
-      <c r="C9" t="n">
-        <v>43.84</v>
-      </c>
-      <c r="D9" t="n">
-        <v>43.84</v>
-      </c>
-      <c r="E9" t="n">
-        <v>43.8</v>
-      </c>
-      <c r="F9" t="n">
-        <v>7004</v>
-      </c>
-      <c r="G9" t="n">
-        <v>-97321.92562645998</v>
-      </c>
-      <c r="H9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>43.71</v>
-      </c>
-      <c r="K9" t="n">
-        <v>43.71</v>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -782,26 +733,15 @@
         <v>-107121.92562646</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>43.84</v>
-      </c>
-      <c r="K10" t="n">
-        <v>43.71</v>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -826,26 +766,15 @@
         <v>-107121.92562646</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>43.64</v>
-      </c>
-      <c r="K11" t="n">
-        <v>43.71</v>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -870,26 +799,15 @@
         <v>-105455.84672646</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="n">
-        <v>43.64</v>
-      </c>
-      <c r="K12" t="n">
-        <v>43.71</v>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -914,26 +832,15 @@
         <v>-144655.84672646</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="n">
-        <v>43.72</v>
-      </c>
-      <c r="K13" t="n">
-        <v>43.71</v>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -958,26 +865,15 @@
         <v>-144655.84672646</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>43.64</v>
-      </c>
-      <c r="K14" t="n">
-        <v>43.71</v>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -1002,26 +898,15 @@
         <v>-156655.84672646</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>43.64</v>
-      </c>
-      <c r="K15" t="n">
-        <v>43.71</v>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -1046,26 +931,15 @@
         <v>-136878.84672646</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="n">
-        <v>43.52</v>
-      </c>
-      <c r="K16" t="n">
-        <v>43.71</v>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1090,26 +964,15 @@
         <v>-164211.14158622</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="n">
-        <v>43.71</v>
-      </c>
-      <c r="K17" t="n">
-        <v>43.71</v>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1134,26 +997,15 @@
         <v>-176011.14158622</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" t="n">
-        <v>43.69</v>
-      </c>
-      <c r="K18" t="n">
-        <v>43.71</v>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1178,26 +1030,15 @@
         <v>-167251.66798622</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>43.52</v>
-      </c>
-      <c r="K19" t="n">
-        <v>43.71</v>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1222,26 +1063,15 @@
         <v>-184851.66798622</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="n">
-        <v>43.88</v>
-      </c>
-      <c r="K20" t="n">
-        <v>43.71</v>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1266,26 +1096,15 @@
         <v>-313766.77518622</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" t="n">
-        <v>43.53</v>
-      </c>
-      <c r="K21" t="n">
-        <v>43.71</v>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1312,22 +1131,13 @@
       <c r="H22" t="n">
         <v>0</v>
       </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="n">
-        <v>43.71</v>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1354,22 +1164,13 @@
       <c r="H23" t="n">
         <v>0</v>
       </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="n">
-        <v>43.71</v>
-      </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1396,22 +1197,13 @@
       <c r="H24" t="n">
         <v>0</v>
       </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="n">
-        <v>43.71</v>
-      </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1438,22 +1230,13 @@
       <c r="H25" t="n">
         <v>0</v>
       </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="n">
-        <v>43.71</v>
-      </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1480,22 +1263,13 @@
       <c r="H26" t="n">
         <v>0</v>
       </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="n">
-        <v>43.71</v>
-      </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1522,22 +1296,13 @@
       <c r="H27" t="n">
         <v>0</v>
       </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="n">
-        <v>43.71</v>
-      </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1564,22 +1329,13 @@
       <c r="H28" t="n">
         <v>0</v>
       </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="n">
-        <v>43.71</v>
-      </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1606,22 +1362,13 @@
       <c r="H29" t="n">
         <v>0</v>
       </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="n">
-        <v>43.71</v>
-      </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1646,26 +1393,15 @@
         <v>-285519.9917862199</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>43.5</v>
-      </c>
-      <c r="K30" t="n">
-        <v>43.71</v>
-      </c>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1690,26 +1426,15 @@
         <v>-217649.3251862199</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>43.66</v>
-      </c>
-      <c r="K31" t="n">
-        <v>43.71</v>
-      </c>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1734,26 +1459,15 @@
         <v>-218014.3251862199</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>43.78</v>
-      </c>
-      <c r="K32" t="n">
-        <v>43.71</v>
-      </c>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1778,26 +1492,15 @@
         <v>-218014.3251862199</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
-      </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
-      <c r="J33" t="n">
-        <v>43.6</v>
-      </c>
-      <c r="K33" t="n">
-        <v>43.71</v>
-      </c>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1822,26 +1525,15 @@
         <v>-218014.3251862199</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>43.6</v>
-      </c>
-      <c r="K34" t="n">
-        <v>43.71</v>
-      </c>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1866,26 +1558,15 @@
         <v>-220067.1770862199</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>43.6</v>
-      </c>
-      <c r="K35" t="n">
-        <v>43.71</v>
-      </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1910,26 +1591,15 @@
         <v>-185958.73868622</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
-      </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
-      <c r="J36" t="n">
-        <v>43.53</v>
-      </c>
-      <c r="K36" t="n">
-        <v>43.71</v>
-      </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1954,26 +1624,15 @@
         <v>-185958.73868622</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
-      </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
-      <c r="J37" t="n">
-        <v>43.98</v>
-      </c>
-      <c r="K37" t="n">
-        <v>43.71</v>
-      </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -2000,22 +1659,13 @@
       <c r="H38" t="n">
         <v>0</v>
       </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="n">
-        <v>43.71</v>
-      </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -2042,22 +1692,13 @@
       <c r="H39" t="n">
         <v>0</v>
       </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="n">
-        <v>43.71</v>
-      </c>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -2084,22 +1725,13 @@
       <c r="H40" t="n">
         <v>0</v>
       </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="n">
-        <v>43.71</v>
-      </c>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -2126,22 +1758,13 @@
       <c r="H41" t="n">
         <v>0</v>
       </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="n">
-        <v>43.71</v>
-      </c>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -2168,22 +1791,13 @@
       <c r="H42" t="n">
         <v>0</v>
       </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="n">
-        <v>43.71</v>
-      </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -2210,22 +1824,13 @@
       <c r="H43" t="n">
         <v>0</v>
       </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="n">
-        <v>43.71</v>
-      </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2252,22 +1857,13 @@
       <c r="H44" t="n">
         <v>0</v>
       </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="n">
-        <v>43.71</v>
-      </c>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2294,22 +1890,13 @@
       <c r="H45" t="n">
         <v>0</v>
       </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="n">
-        <v>43.71</v>
-      </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2336,22 +1923,13 @@
       <c r="H46" t="n">
         <v>0</v>
       </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="n">
-        <v>43.71</v>
-      </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2378,22 +1956,13 @@
       <c r="H47" t="n">
         <v>0</v>
       </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="n">
-        <v>43.71</v>
-      </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2420,22 +1989,13 @@
       <c r="H48" t="n">
         <v>0</v>
       </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="n">
-        <v>43.71</v>
-      </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2462,22 +2022,13 @@
       <c r="H49" t="n">
         <v>0</v>
       </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="n">
-        <v>43.71</v>
-      </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2504,22 +2055,13 @@
       <c r="H50" t="n">
         <v>0</v>
       </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="n">
-        <v>43.71</v>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2546,22 +2088,13 @@
       <c r="H51" t="n">
         <v>0</v>
       </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="n">
-        <v>43.71</v>
-      </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2588,22 +2121,13 @@
       <c r="H52" t="n">
         <v>0</v>
       </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="n">
-        <v>43.71</v>
-      </c>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2630,22 +2154,13 @@
       <c r="H53" t="n">
         <v>0</v>
       </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="n">
-        <v>43.71</v>
-      </c>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2672,22 +2187,13 @@
       <c r="H54" t="n">
         <v>0</v>
       </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="n">
-        <v>43.71</v>
-      </c>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2714,22 +2220,13 @@
       <c r="H55" t="n">
         <v>0</v>
       </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="n">
-        <v>43.71</v>
-      </c>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2756,22 +2253,13 @@
       <c r="H56" t="n">
         <v>0</v>
       </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="n">
-        <v>43.71</v>
-      </c>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2798,22 +2286,13 @@
       <c r="H57" t="n">
         <v>0</v>
       </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="n">
-        <v>43.71</v>
-      </c>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2840,22 +2319,13 @@
       <c r="H58" t="n">
         <v>0</v>
       </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="n">
-        <v>43.71</v>
-      </c>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2882,22 +2352,13 @@
       <c r="H59" t="n">
         <v>0</v>
       </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="n">
-        <v>43.71</v>
-      </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2924,22 +2385,13 @@
       <c r="H60" t="n">
         <v>0</v>
       </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="n">
-        <v>43.71</v>
-      </c>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2966,22 +2418,13 @@
       <c r="H61" t="n">
         <v>0</v>
       </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="n">
-        <v>43.71</v>
-      </c>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -3008,22 +2451,13 @@
       <c r="H62" t="n">
         <v>0</v>
       </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="n">
-        <v>43.71</v>
-      </c>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -3050,22 +2484,13 @@
       <c r="H63" t="n">
         <v>0</v>
       </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="n">
-        <v>43.71</v>
-      </c>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -3092,22 +2517,13 @@
       <c r="H64" t="n">
         <v>0</v>
       </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="n">
-        <v>43.71</v>
-      </c>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -3134,22 +2550,13 @@
       <c r="H65" t="n">
         <v>0</v>
       </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="n">
-        <v>43.71</v>
-      </c>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -3176,22 +2583,13 @@
       <c r="H66" t="n">
         <v>0</v>
       </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="n">
-        <v>43.71</v>
-      </c>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -3218,22 +2616,13 @@
       <c r="H67" t="n">
         <v>0</v>
       </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="n">
-        <v>43.71</v>
-      </c>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -3260,22 +2649,13 @@
       <c r="H68" t="n">
         <v>0</v>
       </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="n">
-        <v>43.71</v>
-      </c>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -3302,22 +2682,13 @@
       <c r="H69" t="n">
         <v>0</v>
       </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="n">
-        <v>43.71</v>
-      </c>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -3344,22 +2715,13 @@
       <c r="H70" t="n">
         <v>0</v>
       </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="n">
-        <v>43.71</v>
-      </c>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3386,22 +2748,13 @@
       <c r="H71" t="n">
         <v>0</v>
       </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="n">
-        <v>43.71</v>
-      </c>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3428,22 +2781,13 @@
       <c r="H72" t="n">
         <v>0</v>
       </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="n">
-        <v>43.71</v>
-      </c>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3470,22 +2814,13 @@
       <c r="H73" t="n">
         <v>0</v>
       </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="n">
-        <v>43.71</v>
-      </c>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3512,22 +2847,13 @@
       <c r="H74" t="n">
         <v>0</v>
       </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="n">
-        <v>43.71</v>
-      </c>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3554,22 +2880,13 @@
       <c r="H75" t="n">
         <v>0</v>
       </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="n">
-        <v>43.71</v>
-      </c>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3596,22 +2913,13 @@
       <c r="H76" t="n">
         <v>0</v>
       </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="n">
-        <v>43.71</v>
-      </c>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3638,22 +2946,13 @@
       <c r="H77" t="n">
         <v>0</v>
       </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="n">
-        <v>43.71</v>
-      </c>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3680,22 +2979,13 @@
       <c r="H78" t="n">
         <v>0</v>
       </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="n">
-        <v>43.71</v>
-      </c>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3722,22 +3012,13 @@
       <c r="H79" t="n">
         <v>0</v>
       </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="n">
-        <v>43.71</v>
-      </c>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3764,22 +3045,13 @@
       <c r="H80" t="n">
         <v>0</v>
       </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="n">
-        <v>43.71</v>
-      </c>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3806,22 +3078,13 @@
       <c r="H81" t="n">
         <v>0</v>
       </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="n">
-        <v>43.71</v>
-      </c>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3848,22 +3111,13 @@
       <c r="H82" t="n">
         <v>0</v>
       </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="n">
-        <v>43.71</v>
-      </c>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3890,22 +3144,13 @@
       <c r="H83" t="n">
         <v>0</v>
       </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="n">
-        <v>43.71</v>
-      </c>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3932,22 +3177,13 @@
       <c r="H84" t="n">
         <v>0</v>
       </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="n">
-        <v>43.71</v>
-      </c>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3972,26 +3208,15 @@
         <v>-357355.5814979</v>
       </c>
       <c r="H85" t="n">
-        <v>1</v>
-      </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
-      <c r="J85" t="n">
-        <v>43.86</v>
-      </c>
-      <c r="K85" t="n">
-        <v>43.71</v>
-      </c>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I85" t="inlineStr"/>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -4016,26 +3241,15 @@
         <v>-355995.5814979</v>
       </c>
       <c r="H86" t="n">
-        <v>1</v>
-      </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
-      <c r="J86" t="n">
-        <v>44.14</v>
-      </c>
-      <c r="K86" t="n">
-        <v>43.71</v>
-      </c>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I86" t="inlineStr"/>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -4062,22 +3276,13 @@
       <c r="H87" t="n">
         <v>0</v>
       </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="n">
-        <v>43.71</v>
-      </c>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -4104,22 +3309,13 @@
       <c r="H88" t="n">
         <v>0</v>
       </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="n">
-        <v>43.71</v>
-      </c>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -4146,22 +3342,13 @@
       <c r="H89" t="n">
         <v>0</v>
       </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="n">
-        <v>43.71</v>
-      </c>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -4188,22 +3375,13 @@
       <c r="H90" t="n">
         <v>0</v>
       </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="n">
-        <v>43.71</v>
-      </c>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -4230,22 +3408,13 @@
       <c r="H91" t="n">
         <v>0</v>
       </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="n">
-        <v>43.71</v>
-      </c>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -4272,22 +3441,13 @@
       <c r="H92" t="n">
         <v>0</v>
       </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="n">
-        <v>43.71</v>
-      </c>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -4314,22 +3474,13 @@
       <c r="H93" t="n">
         <v>0</v>
       </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="n">
-        <v>43.71</v>
-      </c>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -4356,22 +3507,13 @@
       <c r="H94" t="n">
         <v>0</v>
       </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="n">
-        <v>43.71</v>
-      </c>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -4398,22 +3540,13 @@
       <c r="H95" t="n">
         <v>0</v>
       </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="n">
-        <v>43.71</v>
-      </c>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -4440,22 +3573,13 @@
       <c r="H96" t="n">
         <v>0</v>
       </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="n">
-        <v>43.71</v>
-      </c>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -4482,22 +3606,13 @@
       <c r="H97" t="n">
         <v>0</v>
       </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="n">
-        <v>43.71</v>
-      </c>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4524,22 +3639,13 @@
       <c r="H98" t="n">
         <v>0</v>
       </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="n">
-        <v>43.71</v>
-      </c>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4566,22 +3672,13 @@
       <c r="H99" t="n">
         <v>0</v>
       </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="n">
-        <v>43.71</v>
-      </c>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4608,22 +3705,13 @@
       <c r="H100" t="n">
         <v>0</v>
       </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="n">
-        <v>43.71</v>
-      </c>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4650,22 +3738,13 @@
       <c r="H101" t="n">
         <v>0</v>
       </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="n">
-        <v>43.71</v>
-      </c>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4692,22 +3771,13 @@
       <c r="H102" t="n">
         <v>0</v>
       </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="n">
-        <v>43.71</v>
-      </c>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4734,22 +3804,13 @@
       <c r="H103" t="n">
         <v>0</v>
       </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="n">
-        <v>43.71</v>
-      </c>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4776,22 +3837,13 @@
       <c r="H104" t="n">
         <v>0</v>
       </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="n">
-        <v>43.71</v>
-      </c>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4818,22 +3870,13 @@
       <c r="H105" t="n">
         <v>0</v>
       </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="n">
-        <v>43.71</v>
-      </c>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4860,22 +3903,13 @@
       <c r="H106" t="n">
         <v>0</v>
       </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="n">
-        <v>43.71</v>
-      </c>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4902,22 +3936,13 @@
       <c r="H107" t="n">
         <v>0</v>
       </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="n">
-        <v>43.71</v>
-      </c>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4944,22 +3969,13 @@
       <c r="H108" t="n">
         <v>0</v>
       </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="n">
-        <v>43.71</v>
-      </c>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4986,22 +4002,13 @@
       <c r="H109" t="n">
         <v>0</v>
       </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="n">
-        <v>43.71</v>
-      </c>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -5028,22 +4035,13 @@
       <c r="H110" t="n">
         <v>0</v>
       </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="n">
-        <v>43.71</v>
-      </c>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -5070,22 +4068,13 @@
       <c r="H111" t="n">
         <v>0</v>
       </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="n">
-        <v>43.71</v>
-      </c>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -5110,24 +4099,15 @@
         <v>-283002.51211902</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
-      </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="n">
-        <v>43.71</v>
-      </c>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -5154,22 +4134,13 @@
       <c r="H113" t="n">
         <v>0</v>
       </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
+      <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="n">
-        <v>43.71</v>
-      </c>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -5196,22 +4167,13 @@
       <c r="H114" t="n">
         <v>0</v>
       </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
+      <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="n">
-        <v>43.71</v>
-      </c>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -5238,22 +4200,13 @@
       <c r="H115" t="n">
         <v>0</v>
       </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
+      <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="n">
-        <v>43.71</v>
-      </c>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -5280,22 +4233,13 @@
       <c r="H116" t="n">
         <v>0</v>
       </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
+      <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="n">
-        <v>43.71</v>
-      </c>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -5322,22 +4266,13 @@
       <c r="H117" t="n">
         <v>0</v>
       </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
+      <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="n">
-        <v>43.71</v>
-      </c>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -5364,22 +4299,13 @@
       <c r="H118" t="n">
         <v>0</v>
       </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
+      <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="n">
-        <v>43.71</v>
-      </c>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -5406,22 +4332,13 @@
       <c r="H119" t="n">
         <v>0</v>
       </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
+      <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="n">
-        <v>43.71</v>
-      </c>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -5448,22 +4365,13 @@
       <c r="H120" t="n">
         <v>0</v>
       </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
+      <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="n">
-        <v>43.71</v>
-      </c>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -5490,22 +4398,13 @@
       <c r="H121" t="n">
         <v>0</v>
       </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
+      <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="n">
-        <v>43.71</v>
-      </c>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -5532,22 +4431,13 @@
       <c r="H122" t="n">
         <v>0</v>
       </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
+      <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="n">
-        <v>43.71</v>
-      </c>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -5574,22 +4464,13 @@
       <c r="H123" t="n">
         <v>0</v>
       </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
+      <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="n">
-        <v>43.71</v>
-      </c>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -5614,24 +4495,15 @@
         <v>21424.35774402009</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
-      </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="n">
-        <v>43.71</v>
-      </c>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -5656,24 +4528,15 @@
         <v>67998.05401992009</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
-      </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="n">
-        <v>43.71</v>
-      </c>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -5698,24 +4561,15 @@
         <v>-6407.355180079903</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="n">
-        <v>43.71</v>
-      </c>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5742,22 +4596,13 @@
       <c r="H127" t="n">
         <v>0</v>
       </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
+      <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="n">
-        <v>43.71</v>
-      </c>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5782,26 +4627,15 @@
         <v>-60882.0084659099</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
-      </c>
-      <c r="I128" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="n">
-        <v>43.71</v>
-      </c>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M128" t="n">
-        <v>1.082394188972775</v>
-      </c>
-      <c r="N128" t="n">
-        <v>1.003203661327231</v>
-      </c>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5826,18 +4660,15 @@
         <v>-84682.00846590989</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
-      </c>
-      <c r="I129" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5862,20 +4693,17 @@
         <v>-79114.52186590989</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
-      </c>
-      <c r="I130" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-23 BackTest XEM.xlsx
+++ b/BackTest/2020-01-23 BackTest XEM.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -616,14 +616,10 @@
         <v>-104325.92562646</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
-      </c>
-      <c r="I7" t="n">
-        <v>43.71</v>
-      </c>
-      <c r="J7" t="n">
-        <v>43.71</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
         <v>1</v>
@@ -653,19 +649,11 @@
         <v>-104325.92562646</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
-      </c>
-      <c r="I8" t="n">
-        <v>43.71</v>
-      </c>
-      <c r="J8" t="n">
-        <v>43.71</v>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -697,14 +685,8 @@
         <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
-      <c r="J9" t="n">
-        <v>43.71</v>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -1294,11 +1276,17 @@
         <v>-295248.6350862199</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I27" t="n">
+        <v>43.4</v>
+      </c>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1327,11 +1315,17 @@
         <v>-295228.6350862199</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I28" t="n">
+        <v>43.61</v>
+      </c>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1360,11 +1354,17 @@
         <v>-297519.9917862199</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>43.69</v>
+      </c>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1393,11 +1393,17 @@
         <v>-285519.9917862199</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I30" t="n">
+        <v>43.5</v>
+      </c>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1426,11 +1432,17 @@
         <v>-217649.3251862199</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I31" t="n">
+        <v>43.66</v>
+      </c>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1459,11 +1471,17 @@
         <v>-218014.3251862199</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I32" t="n">
+        <v>43.78</v>
+      </c>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1496,7 +1514,11 @@
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1529,7 +1551,11 @@
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1562,7 +1588,11 @@
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1595,7 +1625,11 @@
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1628,7 +1662,11 @@
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1661,7 +1699,11 @@
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1694,7 +1736,11 @@
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1727,7 +1773,11 @@
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1760,7 +1810,11 @@
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1793,7 +1847,11 @@
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1826,7 +1884,11 @@
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -1859,7 +1921,11 @@
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -1892,7 +1958,11 @@
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -1925,7 +1995,11 @@
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -1958,7 +2032,11 @@
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -1991,7 +2069,11 @@
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2024,7 +2106,11 @@
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2057,7 +2143,11 @@
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2090,7 +2180,11 @@
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2123,7 +2217,11 @@
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2156,7 +2254,11 @@
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2189,7 +2291,11 @@
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2222,7 +2328,11 @@
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2255,7 +2365,11 @@
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2288,7 +2402,11 @@
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2321,7 +2439,11 @@
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2354,7 +2476,11 @@
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2387,7 +2513,11 @@
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2420,7 +2550,11 @@
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2453,7 +2587,11 @@
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2486,7 +2624,11 @@
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2519,7 +2661,11 @@
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2552,7 +2698,11 @@
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2585,7 +2735,11 @@
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2618,7 +2772,11 @@
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2651,7 +2809,11 @@
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2684,7 +2846,11 @@
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2717,7 +2883,11 @@
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -2750,7 +2920,11 @@
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -2783,7 +2957,11 @@
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -2816,7 +2994,11 @@
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -2849,7 +3031,11 @@
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -2882,7 +3068,11 @@
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -2915,7 +3105,11 @@
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -2948,7 +3142,11 @@
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -2981,7 +3179,11 @@
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3014,7 +3216,11 @@
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3047,7 +3253,11 @@
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3080,7 +3290,11 @@
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3113,7 +3327,11 @@
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3146,7 +3364,11 @@
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3179,7 +3401,11 @@
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3212,7 +3438,11 @@
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3245,7 +3475,11 @@
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3278,7 +3512,11 @@
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3311,7 +3549,11 @@
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3344,7 +3586,11 @@
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3377,7 +3623,11 @@
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3410,7 +3660,11 @@
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3443,7 +3697,11 @@
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3476,7 +3734,11 @@
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3509,7 +3771,11 @@
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3542,7 +3808,11 @@
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3575,7 +3845,11 @@
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3608,7 +3882,11 @@
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3641,7 +3919,11 @@
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3674,7 +3956,11 @@
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -3707,7 +3993,11 @@
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -3740,7 +4030,11 @@
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -3773,7 +4067,11 @@
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -3806,7 +4104,11 @@
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -3839,7 +4141,11 @@
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -3872,7 +4178,11 @@
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -3905,7 +4215,11 @@
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -3938,7 +4252,11 @@
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -3971,7 +4289,11 @@
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4004,7 +4326,11 @@
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4037,7 +4363,11 @@
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4070,7 +4400,11 @@
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4099,11 +4433,15 @@
         <v>-283002.51211902</v>
       </c>
       <c r="H112" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4136,7 +4474,11 @@
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4169,7 +4511,11 @@
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4202,7 +4548,11 @@
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4235,7 +4585,11 @@
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4268,7 +4622,11 @@
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4301,7 +4659,11 @@
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4334,7 +4696,11 @@
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4367,7 +4733,11 @@
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4400,7 +4770,11 @@
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4433,7 +4807,11 @@
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4466,7 +4844,11 @@
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4495,11 +4877,15 @@
         <v>21424.35774402009</v>
       </c>
       <c r="H124" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4528,11 +4914,15 @@
         <v>67998.05401992009</v>
       </c>
       <c r="H125" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4561,11 +4951,15 @@
         <v>-6407.355180079903</v>
       </c>
       <c r="H126" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4598,7 +4992,11 @@
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -4627,14 +5025,16 @@
         <v>-60882.0084659099</v>
       </c>
       <c r="H128" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L128" t="inlineStr"/>
       <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
@@ -4660,7 +5060,7 @@
         <v>-84682.00846590989</v>
       </c>
       <c r="H129" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -4693,7 +5093,7 @@
         <v>-79114.52186590989</v>
       </c>
       <c r="H130" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -4704,6 +5104,6 @@
       <c r="M130" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-23 BackTest XEM.xlsx
+++ b/BackTest/2020-01-23 BackTest XEM.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -1276,17 +1276,11 @@
         <v>-295248.6350862199</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
-      </c>
-      <c r="I27" t="n">
-        <v>43.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K27" t="inlineStr"/>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1315,17 +1309,11 @@
         <v>-295228.6350862199</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
-      </c>
-      <c r="I28" t="n">
-        <v>43.61</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K28" t="inlineStr"/>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1354,17 +1342,11 @@
         <v>-297519.9917862199</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>43.69</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K29" t="inlineStr"/>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1393,17 +1375,11 @@
         <v>-285519.9917862199</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
-      </c>
-      <c r="I30" t="n">
-        <v>43.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K30" t="inlineStr"/>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1432,17 +1408,11 @@
         <v>-217649.3251862199</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
-      </c>
-      <c r="I31" t="n">
-        <v>43.66</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K31" t="inlineStr"/>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1471,17 +1441,11 @@
         <v>-218014.3251862199</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
-      </c>
-      <c r="I32" t="n">
-        <v>43.78</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K32" t="inlineStr"/>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1514,11 +1478,7 @@
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K33" t="inlineStr"/>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1551,11 +1511,7 @@
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K34" t="inlineStr"/>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1588,11 +1544,7 @@
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K35" t="inlineStr"/>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1625,11 +1577,7 @@
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K36" t="inlineStr"/>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1662,11 +1610,7 @@
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K37" t="inlineStr"/>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1699,11 +1643,7 @@
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K38" t="inlineStr"/>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1736,11 +1676,7 @@
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K39" t="inlineStr"/>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1773,11 +1709,7 @@
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K40" t="inlineStr"/>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1810,11 +1742,7 @@
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1847,11 +1775,7 @@
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K42" t="inlineStr"/>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1884,11 +1808,7 @@
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K43" t="inlineStr"/>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -1921,11 +1841,7 @@
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K44" t="inlineStr"/>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -1958,11 +1874,7 @@
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K45" t="inlineStr"/>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -1995,11 +1907,7 @@
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -2032,11 +1940,7 @@
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K47" t="inlineStr"/>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -2069,11 +1973,7 @@
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K48" t="inlineStr"/>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2106,11 +2006,7 @@
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2143,11 +2039,7 @@
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2180,11 +2072,7 @@
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K51" t="inlineStr"/>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2217,11 +2105,7 @@
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2254,11 +2138,7 @@
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2291,11 +2171,7 @@
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2328,11 +2204,7 @@
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2365,11 +2237,7 @@
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2398,15 +2266,11 @@
         <v>-332725.7299971099</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2435,15 +2299,11 @@
         <v>-344102.9922971099</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2472,15 +2332,11 @@
         <v>-341688.4639971099</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K59" t="inlineStr"/>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2509,15 +2365,11 @@
         <v>-341564.4684613999</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2550,11 +2402,7 @@
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2587,11 +2435,7 @@
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2624,11 +2468,7 @@
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2661,11 +2501,7 @@
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K64" t="inlineStr"/>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2698,11 +2534,7 @@
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2735,11 +2567,7 @@
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2772,11 +2600,7 @@
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K67" t="inlineStr"/>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2809,11 +2633,7 @@
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2846,11 +2666,7 @@
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K69" t="inlineStr"/>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2883,11 +2699,7 @@
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -2920,11 +2732,7 @@
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -2957,11 +2765,7 @@
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -2994,11 +2798,7 @@
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -3031,11 +2831,7 @@
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -3068,11 +2864,7 @@
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -3105,11 +2897,7 @@
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -3142,11 +2930,7 @@
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3179,11 +2963,7 @@
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3216,11 +2996,7 @@
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3253,11 +3029,7 @@
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3290,11 +3062,7 @@
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3327,11 +3095,7 @@
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3360,15 +3124,15 @@
         <v>-353216.7461979</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
-      </c>
-      <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I83" t="n">
+        <v>43.9</v>
+      </c>
+      <c r="J83" t="n">
+        <v>43.9</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3397,13 +3161,17 @@
         <v>-368175.3614979</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I84" t="n">
+        <v>44</v>
+      </c>
+      <c r="J84" t="n">
+        <v>43.9</v>
+      </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L84" t="n">
@@ -3434,13 +3202,17 @@
         <v>-357355.5814979</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
-      </c>
-      <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I85" t="n">
+        <v>43.86</v>
+      </c>
+      <c r="J85" t="n">
+        <v>43.9</v>
+      </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L85" t="n">
@@ -3471,15 +3243,15 @@
         <v>-355995.5814979</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
-      </c>
-      <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I86" t="n">
+        <v>44.14</v>
+      </c>
+      <c r="J86" t="n">
+        <v>44.14</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3508,13 +3280,17 @@
         <v>-355315.5814979</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
-      </c>
-      <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I87" t="n">
+        <v>44.36</v>
+      </c>
+      <c r="J87" t="n">
+        <v>44.14</v>
+      </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L87" t="n">
@@ -3545,13 +3321,17 @@
         <v>-370954.3844707599</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
-      </c>
-      <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I88" t="n">
+        <v>44.4</v>
+      </c>
+      <c r="J88" t="n">
+        <v>44.14</v>
+      </c>
       <c r="K88" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L88" t="n">
@@ -3582,15 +3362,15 @@
         <v>-373421.58087076</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
-      </c>
-      <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I89" t="n">
+        <v>44.27</v>
+      </c>
+      <c r="J89" t="n">
+        <v>44.27</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3619,13 +3399,17 @@
         <v>-357696.0780707599</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I90" t="n">
+        <v>44.1</v>
+      </c>
+      <c r="J90" t="n">
+        <v>44.27</v>
+      </c>
       <c r="K90" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L90" t="n">
@@ -3656,13 +3440,17 @@
         <v>-357696.0780707599</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
-      </c>
-      <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I91" t="n">
+        <v>44.13</v>
+      </c>
+      <c r="J91" t="n">
+        <v>44.27</v>
+      </c>
       <c r="K91" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L91" t="n">
@@ -3693,15 +3481,15 @@
         <v>-354345.67627076</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I92" t="n">
+        <v>44.13</v>
+      </c>
+      <c r="J92" t="n">
+        <v>44.13</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3733,10 +3521,12 @@
         <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>44.13</v>
+      </c>
       <c r="K93" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L93" t="n">
@@ -3767,13 +3557,17 @@
         <v>-354326.2899707599</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
-      </c>
-      <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I94" t="n">
+        <v>44.66</v>
+      </c>
+      <c r="J94" t="n">
+        <v>44.13</v>
+      </c>
       <c r="K94" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L94" t="n">
@@ -3804,15 +3598,11 @@
         <v>-354345.67627076</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K95" t="inlineStr"/>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3841,15 +3631,15 @@
         <v>-354220.67627076</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
-      </c>
-      <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I96" t="n">
+        <v>44.61</v>
+      </c>
+      <c r="J96" t="n">
+        <v>44.61</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3878,13 +3668,17 @@
         <v>-354078.3791707599</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
-      </c>
-      <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I97" t="n">
+        <v>44.7</v>
+      </c>
+      <c r="J97" t="n">
+        <v>44.61</v>
+      </c>
       <c r="K97" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L97" t="n">
@@ -3915,13 +3709,17 @@
         <v>-351358.3791707599</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I98" t="n">
+        <v>44.89</v>
+      </c>
+      <c r="J98" t="n">
+        <v>44.61</v>
+      </c>
       <c r="K98" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L98" t="n">
@@ -3952,15 +3750,15 @@
         <v>-351136.3791707599</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
-      </c>
-      <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I99" t="n">
+        <v>45.06</v>
+      </c>
+      <c r="J99" t="n">
+        <v>45.06</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -3989,13 +3787,17 @@
         <v>-350937.2015707599</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
-      </c>
-      <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I100" t="n">
+        <v>45.07</v>
+      </c>
+      <c r="J100" t="n">
+        <v>45.06</v>
+      </c>
       <c r="K100" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L100" t="n">
@@ -4026,13 +3828,17 @@
         <v>-351358.3791707599</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
-      </c>
-      <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I101" t="n">
+        <v>45.1</v>
+      </c>
+      <c r="J101" t="n">
+        <v>45.06</v>
+      </c>
       <c r="K101" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L101" t="n">
@@ -4063,15 +3869,15 @@
         <v>-315853.03777076</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
-      </c>
-      <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I102" t="n">
+        <v>44.92</v>
+      </c>
+      <c r="J102" t="n">
+        <v>44.92</v>
+      </c>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -4100,13 +3906,17 @@
         <v>-307855.93471902</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
-      </c>
-      <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I103" t="n">
+        <v>45.01</v>
+      </c>
+      <c r="J103" t="n">
+        <v>44.92</v>
+      </c>
       <c r="K103" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L103" t="n">
@@ -4137,13 +3947,17 @@
         <v>-307855.93471902</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
-      </c>
-      <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I104" t="n">
+        <v>45.22</v>
+      </c>
+      <c r="J104" t="n">
+        <v>44.92</v>
+      </c>
       <c r="K104" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L104" t="n">
@@ -4174,15 +3988,15 @@
         <v>-278681.27671902</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
-      </c>
-      <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I105" t="n">
+        <v>45.22</v>
+      </c>
+      <c r="J105" t="n">
+        <v>45.22</v>
+      </c>
+      <c r="K105" t="inlineStr"/>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4211,13 +4025,17 @@
         <v>-254704.78451902</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I106" t="n">
+        <v>45.38</v>
+      </c>
+      <c r="J106" t="n">
+        <v>45.22</v>
+      </c>
       <c r="K106" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L106" t="n">
@@ -4251,10 +4069,12 @@
         <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>45.22</v>
+      </c>
       <c r="K107" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L107" t="n">
@@ -4289,11 +4109,7 @@
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K108" t="inlineStr"/>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4322,15 +4138,11 @@
         <v>-295879.83891902</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K109" t="inlineStr"/>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4363,11 +4175,7 @@
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K110" t="inlineStr"/>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4400,11 +4208,7 @@
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K111" t="inlineStr"/>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4437,11 +4241,7 @@
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K112" t="inlineStr"/>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4474,11 +4274,7 @@
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K113" t="inlineStr"/>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4511,11 +4307,7 @@
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K114" t="inlineStr"/>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4544,15 +4336,11 @@
         <v>-296503.31051902</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K115" t="inlineStr"/>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4581,15 +4369,11 @@
         <v>-295032.2942190199</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K116" t="inlineStr"/>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4618,15 +4402,11 @@
         <v>-271433.1098190199</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K117" t="inlineStr"/>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4655,15 +4435,11 @@
         <v>-275041.1224190199</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K118" t="inlineStr"/>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4692,15 +4468,11 @@
         <v>-280219.4358190199</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K119" t="inlineStr"/>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4729,15 +4501,11 @@
         <v>-268019.4358190199</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K120" t="inlineStr"/>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4766,15 +4534,11 @@
         <v>-229450.5436190199</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K121" t="inlineStr"/>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4803,15 +4567,11 @@
         <v>-146972.9572190199</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K122" t="inlineStr"/>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4840,15 +4600,11 @@
         <v>-76711.23656683991</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K123" t="inlineStr"/>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4877,15 +4633,11 @@
         <v>21424.35774402009</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K124" t="inlineStr"/>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4918,11 +4670,7 @@
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K125" t="inlineStr"/>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4955,11 +4703,7 @@
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K126" t="inlineStr"/>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4992,11 +4736,7 @@
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K127" t="inlineStr"/>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -5025,16 +4765,14 @@
         <v>-60882.0084659099</v>
       </c>
       <c r="H128" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
       <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
@@ -5060,7 +4798,7 @@
         <v>-84682.00846590989</v>
       </c>
       <c r="H129" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -5093,7 +4831,7 @@
         <v>-79114.52186590989</v>
       </c>
       <c r="H130" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -5104,6 +4842,6 @@
       <c r="M130" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-23 BackTest XEM.xlsx
+++ b/BackTest/2020-01-23 BackTest XEM.xlsx
@@ -2266,7 +2266,7 @@
         <v>-332725.7299971099</v>
       </c>
       <c r="H57" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>-344102.9922971099</v>
       </c>
       <c r="H58" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>-341688.4639971099</v>
       </c>
       <c r="H59" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>-341564.4684613999</v>
       </c>
       <c r="H60" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2563,10 +2563,14 @@
         <v>-380564.6288978999</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I66" t="n">
+        <v>44.37</v>
+      </c>
+      <c r="J66" t="n">
+        <v>44.37</v>
+      </c>
       <c r="K66" t="inlineStr"/>
       <c r="L66" t="n">
         <v>1</v>
@@ -2596,11 +2600,19 @@
         <v>-306665.1550979</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I67" t="n">
+        <v>44.37</v>
+      </c>
+      <c r="J67" t="n">
+        <v>44.37</v>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2632,8 +2644,14 @@
         <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>44.37</v>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2665,8 +2683,14 @@
         <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>44.37</v>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2698,8 +2722,14 @@
         <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>44.37</v>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -2731,8 +2761,14 @@
         <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>44.37</v>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -2764,8 +2800,14 @@
         <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>44.37</v>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -2797,8 +2839,14 @@
         <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>44.37</v>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -2830,8 +2878,14 @@
         <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>44.37</v>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -2863,8 +2917,14 @@
         <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>44.37</v>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -2893,11 +2953,19 @@
         <v>-332805.0500979</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
-      </c>
-      <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I76" t="n">
+        <v>44.45</v>
+      </c>
+      <c r="J76" t="n">
+        <v>44.37</v>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -2926,11 +2994,19 @@
         <v>-332805.0500979</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
-      </c>
-      <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I77" t="n">
+        <v>44.25</v>
+      </c>
+      <c r="J77" t="n">
+        <v>44.37</v>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -2959,11 +3035,19 @@
         <v>-322805.0500979</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
-      </c>
-      <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I78" t="n">
+        <v>44.25</v>
+      </c>
+      <c r="J78" t="n">
+        <v>44.37</v>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -2992,11 +3076,19 @@
         <v>-330598.1161979</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
-      </c>
-      <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I79" t="n">
+        <v>44.43</v>
+      </c>
+      <c r="J79" t="n">
+        <v>44.37</v>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3025,11 +3117,19 @@
         <v>-330598.1161979</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
-      </c>
-      <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I80" t="n">
+        <v>44.38</v>
+      </c>
+      <c r="J80" t="n">
+        <v>44.37</v>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3058,11 +3158,19 @@
         <v>-350598.1161979</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
-      </c>
-      <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I81" t="n">
+        <v>44.38</v>
+      </c>
+      <c r="J81" t="n">
+        <v>44.37</v>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3091,11 +3199,19 @@
         <v>-353402.9168979</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
-      </c>
-      <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>43.94</v>
+      </c>
+      <c r="J82" t="n">
+        <v>44.37</v>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3130,9 +3246,13 @@
         <v>43.9</v>
       </c>
       <c r="J83" t="n">
-        <v>43.9</v>
-      </c>
-      <c r="K83" t="inlineStr"/>
+        <v>44.37</v>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3167,11 +3287,11 @@
         <v>44</v>
       </c>
       <c r="J84" t="n">
-        <v>43.9</v>
+        <v>44.37</v>
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L84" t="n">
@@ -3208,11 +3328,11 @@
         <v>43.86</v>
       </c>
       <c r="J85" t="n">
-        <v>43.9</v>
+        <v>44.37</v>
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L85" t="n">
@@ -3249,9 +3369,13 @@
         <v>44.14</v>
       </c>
       <c r="J86" t="n">
-        <v>44.14</v>
-      </c>
-      <c r="K86" t="inlineStr"/>
+        <v>44.37</v>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3286,11 +3410,11 @@
         <v>44.36</v>
       </c>
       <c r="J87" t="n">
-        <v>44.14</v>
+        <v>44.37</v>
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L87" t="n">
@@ -3327,11 +3451,11 @@
         <v>44.4</v>
       </c>
       <c r="J88" t="n">
-        <v>44.14</v>
+        <v>44.37</v>
       </c>
       <c r="K88" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L88" t="n">
@@ -3368,9 +3492,13 @@
         <v>44.27</v>
       </c>
       <c r="J89" t="n">
-        <v>44.27</v>
-      </c>
-      <c r="K89" t="inlineStr"/>
+        <v>44.37</v>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3405,11 +3533,11 @@
         <v>44.1</v>
       </c>
       <c r="J90" t="n">
-        <v>44.27</v>
+        <v>44.37</v>
       </c>
       <c r="K90" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L90" t="n">
@@ -3446,11 +3574,11 @@
         <v>44.13</v>
       </c>
       <c r="J91" t="n">
-        <v>44.27</v>
+        <v>44.37</v>
       </c>
       <c r="K91" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L91" t="n">
@@ -3487,9 +3615,13 @@
         <v>44.13</v>
       </c>
       <c r="J92" t="n">
-        <v>44.13</v>
-      </c>
-      <c r="K92" t="inlineStr"/>
+        <v>44.37</v>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3518,15 +3650,17 @@
         <v>-354345.67627076</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
-      </c>
-      <c r="I93" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I93" t="n">
+        <v>44.66</v>
+      </c>
       <c r="J93" t="n">
-        <v>44.13</v>
+        <v>44.37</v>
       </c>
       <c r="K93" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L93" t="n">
@@ -3563,11 +3697,11 @@
         <v>44.66</v>
       </c>
       <c r="J94" t="n">
-        <v>44.13</v>
+        <v>44.37</v>
       </c>
       <c r="K94" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L94" t="n">
@@ -3598,11 +3732,19 @@
         <v>-354345.67627076</v>
       </c>
       <c r="H95" t="n">
-        <v>2</v>
-      </c>
-      <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I95" t="n">
+        <v>44.8</v>
+      </c>
+      <c r="J95" t="n">
+        <v>44.37</v>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3637,9 +3779,13 @@
         <v>44.61</v>
       </c>
       <c r="J96" t="n">
-        <v>44.61</v>
-      </c>
-      <c r="K96" t="inlineStr"/>
+        <v>44.37</v>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3674,11 +3820,11 @@
         <v>44.7</v>
       </c>
       <c r="J97" t="n">
-        <v>44.61</v>
+        <v>44.37</v>
       </c>
       <c r="K97" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L97" t="n">
@@ -3715,11 +3861,11 @@
         <v>44.89</v>
       </c>
       <c r="J98" t="n">
-        <v>44.61</v>
+        <v>44.37</v>
       </c>
       <c r="K98" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L98" t="n">
@@ -3756,9 +3902,13 @@
         <v>45.06</v>
       </c>
       <c r="J99" t="n">
-        <v>45.06</v>
-      </c>
-      <c r="K99" t="inlineStr"/>
+        <v>44.37</v>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -3793,11 +3943,11 @@
         <v>45.07</v>
       </c>
       <c r="J100" t="n">
-        <v>45.06</v>
+        <v>44.37</v>
       </c>
       <c r="K100" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L100" t="n">
@@ -3834,11 +3984,11 @@
         <v>45.1</v>
       </c>
       <c r="J101" t="n">
-        <v>45.06</v>
+        <v>44.37</v>
       </c>
       <c r="K101" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L101" t="n">
@@ -3875,9 +4025,13 @@
         <v>44.92</v>
       </c>
       <c r="J102" t="n">
-        <v>44.92</v>
-      </c>
-      <c r="K102" t="inlineStr"/>
+        <v>44.37</v>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -3912,11 +4066,11 @@
         <v>45.01</v>
       </c>
       <c r="J103" t="n">
-        <v>44.92</v>
+        <v>44.37</v>
       </c>
       <c r="K103" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L103" t="n">
@@ -3953,11 +4107,11 @@
         <v>45.22</v>
       </c>
       <c r="J104" t="n">
-        <v>44.92</v>
+        <v>44.37</v>
       </c>
       <c r="K104" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L104" t="n">
@@ -3994,9 +4148,13 @@
         <v>45.22</v>
       </c>
       <c r="J105" t="n">
-        <v>45.22</v>
-      </c>
-      <c r="K105" t="inlineStr"/>
+        <v>44.37</v>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4031,11 +4189,11 @@
         <v>45.38</v>
       </c>
       <c r="J106" t="n">
-        <v>45.22</v>
+        <v>44.37</v>
       </c>
       <c r="K106" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L106" t="n">
@@ -4066,15 +4224,17 @@
         <v>-259267.58511902</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
-      </c>
-      <c r="I107" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I107" t="n">
+        <v>45.39</v>
+      </c>
       <c r="J107" t="n">
-        <v>45.22</v>
+        <v>44.37</v>
       </c>
       <c r="K107" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L107" t="n">
@@ -4105,11 +4265,19 @@
         <v>-259267.58511902</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
-      </c>
-      <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I108" t="n">
+        <v>45.38</v>
+      </c>
+      <c r="J108" t="n">
+        <v>44.37</v>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4138,11 +4306,17 @@
         <v>-295879.83891902</v>
       </c>
       <c r="H109" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>44.37</v>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4174,8 +4348,14 @@
         <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>44.37</v>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4207,8 +4387,14 @@
         <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>44.37</v>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4240,8 +4426,14 @@
         <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>44.37</v>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4273,8 +4465,14 @@
         <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>44.37</v>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4306,8 +4504,14 @@
         <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>44.37</v>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4336,11 +4540,17 @@
         <v>-296503.31051902</v>
       </c>
       <c r="H115" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>44.37</v>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4369,11 +4579,17 @@
         <v>-295032.2942190199</v>
       </c>
       <c r="H116" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>44.37</v>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4402,11 +4618,17 @@
         <v>-271433.1098190199</v>
       </c>
       <c r="H117" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>44.37</v>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4435,11 +4657,17 @@
         <v>-275041.1224190199</v>
       </c>
       <c r="H118" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>44.37</v>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4468,11 +4696,17 @@
         <v>-280219.4358190199</v>
       </c>
       <c r="H119" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>44.37</v>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4501,11 +4735,17 @@
         <v>-268019.4358190199</v>
       </c>
       <c r="H120" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>44.37</v>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4534,11 +4774,17 @@
         <v>-229450.5436190199</v>
       </c>
       <c r="H121" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>44.37</v>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4567,11 +4813,17 @@
         <v>-146972.9572190199</v>
       </c>
       <c r="H122" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>44.37</v>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4600,11 +4852,17 @@
         <v>-76711.23656683991</v>
       </c>
       <c r="H123" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>44.37</v>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4633,11 +4891,17 @@
         <v>21424.35774402009</v>
       </c>
       <c r="H124" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>44.37</v>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4669,8 +4933,14 @@
         <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>44.37</v>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4702,8 +4972,14 @@
         <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>44.37</v>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4732,15 +5008,23 @@
         <v>52595.8006199201</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>44.37</v>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
+        <v>1.074558260085644</v>
+      </c>
+      <c r="M127" t="n">
+        <v>1.039677047289504</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4765,7 +5049,7 @@
         <v>-60882.0084659099</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4798,7 +5082,7 @@
         <v>-84682.00846590989</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -4831,7 +5115,7 @@
         <v>-79114.52186590989</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>

--- a/BackTest/2020-01-23 BackTest XEM.xlsx
+++ b/BackTest/2020-01-23 BackTest XEM.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M130"/>
+  <dimension ref="A1:L130"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>trade_state</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>1022.4687</v>
       </c>
       <c r="G2" t="n">
-        <v>-105787.20542646</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,18 +473,15 @@
         <v>1202.2699</v>
       </c>
       <c r="G3" t="n">
-        <v>-105787.20542646</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -514,18 +503,19 @@
         <v>1461.2798</v>
       </c>
       <c r="G4" t="n">
-        <v>-104325.92562646</v>
+        <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="inlineStr"/>
+        <v>43.7</v>
+      </c>
+      <c r="I4" t="n">
+        <v>43.7</v>
+      </c>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -547,18 +537,23 @@
         <v>789.8717</v>
       </c>
       <c r="G5" t="n">
-        <v>-104325.92562646</v>
+        <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+        <v>43.71</v>
+      </c>
+      <c r="I5" t="n">
+        <v>43.7</v>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -580,18 +575,23 @@
         <v>9800</v>
       </c>
       <c r="G6" t="n">
-        <v>-104325.92562646</v>
+        <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+        <v>43.71</v>
+      </c>
+      <c r="I6" t="n">
+        <v>43.7</v>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -613,18 +613,19 @@
         <v>4251.5788</v>
       </c>
       <c r="G7" t="n">
-        <v>-104325.92562646</v>
+        <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="inlineStr"/>
+        <v>43.71</v>
+      </c>
+      <c r="I7" t="n">
+        <v>43.71</v>
+      </c>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -646,18 +647,23 @@
         <v>124.8125</v>
       </c>
       <c r="G8" t="n">
-        <v>-104325.92562646</v>
+        <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+        <v>43.71</v>
+      </c>
+      <c r="I8" t="n">
+        <v>43.71</v>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -679,18 +685,21 @@
         <v>7004</v>
       </c>
       <c r="G9" t="n">
-        <v>-97321.92562645998</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="n">
+        <v>43.71</v>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -712,18 +721,15 @@
         <v>9800</v>
       </c>
       <c r="G10" t="n">
-        <v>-107121.92562646</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -745,18 +751,15 @@
         <v>4543.4693</v>
       </c>
       <c r="G11" t="n">
-        <v>-107121.92562646</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -778,18 +781,19 @@
         <v>1666.0789</v>
       </c>
       <c r="G12" t="n">
-        <v>-105455.84672646</v>
+        <v>1</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="inlineStr"/>
+        <v>43.64</v>
+      </c>
+      <c r="I12" t="n">
+        <v>43.64</v>
+      </c>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -811,18 +815,23 @@
         <v>39200</v>
       </c>
       <c r="G13" t="n">
-        <v>-144655.84672646</v>
+        <v>1</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+        <v>43.72</v>
+      </c>
+      <c r="I13" t="n">
+        <v>43.64</v>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -844,18 +853,23 @@
         <v>1506.8444</v>
       </c>
       <c r="G14" t="n">
-        <v>-144655.84672646</v>
+        <v>1</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+        <v>43.64</v>
+      </c>
+      <c r="I14" t="n">
+        <v>43.64</v>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -877,18 +891,23 @@
         <v>12000</v>
       </c>
       <c r="G15" t="n">
-        <v>-156655.84672646</v>
+        <v>1</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+        <v>43.64</v>
+      </c>
+      <c r="I15" t="n">
+        <v>43.64</v>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -910,18 +929,23 @@
         <v>19777</v>
       </c>
       <c r="G16" t="n">
-        <v>-136878.84672646</v>
+        <v>1</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+        <v>43.52</v>
+      </c>
+      <c r="I16" t="n">
+        <v>43.64</v>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -943,18 +967,23 @@
         <v>27332.29485976</v>
       </c>
       <c r="G17" t="n">
-        <v>-164211.14158622</v>
+        <v>1</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+        <v>43.71</v>
+      </c>
+      <c r="I17" t="n">
+        <v>43.64</v>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -976,18 +1005,23 @@
         <v>11800</v>
       </c>
       <c r="G18" t="n">
-        <v>-176011.14158622</v>
+        <v>1</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+        <v>43.69</v>
+      </c>
+      <c r="I18" t="n">
+        <v>43.64</v>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1009,18 +1043,23 @@
         <v>8759.473599999999</v>
       </c>
       <c r="G19" t="n">
-        <v>-167251.66798622</v>
+        <v>1</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+        <v>43.52</v>
+      </c>
+      <c r="I19" t="n">
+        <v>43.64</v>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1042,18 +1081,23 @@
         <v>17600</v>
       </c>
       <c r="G20" t="n">
-        <v>-184851.66798622</v>
+        <v>1</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+        <v>43.88</v>
+      </c>
+      <c r="I20" t="n">
+        <v>43.64</v>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1075,18 +1119,23 @@
         <v>128915.1072</v>
       </c>
       <c r="G21" t="n">
-        <v>-313766.77518622</v>
+        <v>1</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+        <v>43.53</v>
+      </c>
+      <c r="I21" t="n">
+        <v>43.64</v>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1108,18 +1157,23 @@
         <v>14085.4935</v>
       </c>
       <c r="G22" t="n">
-        <v>-313766.77518622</v>
+        <v>1</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+        <v>43.35</v>
+      </c>
+      <c r="I22" t="n">
+        <v>43.64</v>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1141,18 +1195,21 @@
         <v>960</v>
       </c>
       <c r="G23" t="n">
-        <v>-312806.77518622</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
+      <c r="I23" t="n">
+        <v>43.64</v>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1174,18 +1231,23 @@
         <v>229.463</v>
       </c>
       <c r="G24" t="n">
-        <v>-313036.2381862199</v>
+        <v>1</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+        <v>43.57</v>
+      </c>
+      <c r="I24" t="n">
+        <v>43.64</v>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1207,18 +1269,21 @@
         <v>11928.6837</v>
       </c>
       <c r="G25" t="n">
-        <v>-301107.5544862199</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
+      <c r="I25" t="n">
+        <v>43.64</v>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1240,18 +1305,23 @@
         <v>3770.537</v>
       </c>
       <c r="G26" t="n">
-        <v>-304878.09148622</v>
+        <v>1</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+        <v>43.62</v>
+      </c>
+      <c r="I26" t="n">
+        <v>43.64</v>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1273,18 +1343,21 @@
         <v>9629.456399999999</v>
       </c>
       <c r="G27" t="n">
-        <v>-295248.6350862199</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
+      <c r="I27" t="n">
+        <v>43.64</v>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1306,18 +1379,23 @@
         <v>20</v>
       </c>
       <c r="G28" t="n">
-        <v>-295228.6350862199</v>
+        <v>1</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+        <v>43.61</v>
+      </c>
+      <c r="I28" t="n">
+        <v>43.64</v>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1339,18 +1417,21 @@
         <v>2291.3567</v>
       </c>
       <c r="G29" t="n">
-        <v>-297519.9917862199</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
+      <c r="I29" t="n">
+        <v>43.64</v>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1372,18 +1453,21 @@
         <v>12000</v>
       </c>
       <c r="G30" t="n">
-        <v>-285519.9917862199</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
+      <c r="I30" t="n">
+        <v>43.64</v>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1405,18 +1489,23 @@
         <v>67870.6666</v>
       </c>
       <c r="G31" t="n">
-        <v>-217649.3251862199</v>
+        <v>1</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+        <v>43.66</v>
+      </c>
+      <c r="I31" t="n">
+        <v>43.64</v>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1438,18 +1527,21 @@
         <v>365</v>
       </c>
       <c r="G32" t="n">
-        <v>-218014.3251862199</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
+      <c r="I32" t="n">
+        <v>43.64</v>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1471,18 +1563,21 @@
         <v>890</v>
       </c>
       <c r="G33" t="n">
-        <v>-218014.3251862199</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
+      <c r="I33" t="n">
+        <v>43.64</v>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1504,18 +1599,21 @@
         <v>2057.1481</v>
       </c>
       <c r="G34" t="n">
-        <v>-218014.3251862199</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
+      <c r="I34" t="n">
+        <v>43.64</v>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1537,18 +1635,21 @@
         <v>2052.8519</v>
       </c>
       <c r="G35" t="n">
-        <v>-220067.1770862199</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
+      <c r="I35" t="n">
+        <v>43.64</v>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1570,18 +1671,21 @@
         <v>34108.4384</v>
       </c>
       <c r="G36" t="n">
-        <v>-185958.73868622</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
+      <c r="I36" t="n">
+        <v>43.64</v>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1603,18 +1707,21 @@
         <v>22733.6439</v>
       </c>
       <c r="G37" t="n">
-        <v>-185958.73868622</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
+      <c r="I37" t="n">
+        <v>43.64</v>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1636,18 +1743,21 @@
         <v>126.2786997</v>
       </c>
       <c r="G38" t="n">
-        <v>-185832.45998652</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
+      <c r="I38" t="n">
+        <v>43.64</v>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1669,18 +1779,21 @@
         <v>2273.24391907</v>
       </c>
       <c r="G39" t="n">
-        <v>-185832.45998652</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
+      <c r="I39" t="n">
+        <v>43.64</v>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1702,18 +1815,21 @@
         <v>23.6814</v>
       </c>
       <c r="G40" t="n">
-        <v>-185808.77858652</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
+      <c r="I40" t="n">
+        <v>43.64</v>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1735,18 +1851,21 @@
         <v>20000</v>
       </c>
       <c r="G41" t="n">
-        <v>-185808.77858652</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
+      <c r="I41" t="n">
+        <v>43.64</v>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1768,18 +1887,21 @@
         <v>59230.3392</v>
       </c>
       <c r="G42" t="n">
-        <v>-245039.11778652</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
+      <c r="I42" t="n">
+        <v>43.64</v>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1801,18 +1923,21 @@
         <v>13171.6066</v>
       </c>
       <c r="G43" t="n">
-        <v>-258210.72438652</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
+      <c r="I43" t="n">
+        <v>43.64</v>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1834,18 +1959,21 @@
         <v>20000</v>
       </c>
       <c r="G44" t="n">
-        <v>-278210.72438652</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
+      <c r="I44" t="n">
+        <v>43.64</v>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1867,18 +1995,21 @@
         <v>406.2847</v>
       </c>
       <c r="G45" t="n">
-        <v>-277804.43968652</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
+      <c r="I45" t="n">
+        <v>43.64</v>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1900,18 +2031,21 @@
         <v>17.6335</v>
       </c>
       <c r="G46" t="n">
-        <v>-277786.80618652</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
+      <c r="I46" t="n">
+        <v>43.64</v>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1933,18 +2067,21 @@
         <v>50000</v>
       </c>
       <c r="G47" t="n">
-        <v>-327786.80618652</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
+      <c r="I47" t="n">
+        <v>43.64</v>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1966,18 +2103,21 @@
         <v>27.8025</v>
       </c>
       <c r="G48" t="n">
-        <v>-327759.00368652</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
+      <c r="I48" t="n">
+        <v>43.64</v>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1999,18 +2139,21 @@
         <v>51075.5617</v>
       </c>
       <c r="G49" t="n">
-        <v>-378834.56538652</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
+      <c r="I49" t="n">
+        <v>43.64</v>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2032,18 +2175,21 @@
         <v>102.56698941</v>
       </c>
       <c r="G50" t="n">
-        <v>-378731.99839711</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
+      <c r="I50" t="n">
+        <v>43.64</v>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2065,18 +2211,21 @@
         <v>363.13601059</v>
       </c>
       <c r="G51" t="n">
-        <v>-378731.99839711</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
+      <c r="I51" t="n">
+        <v>43.64</v>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2098,18 +2247,21 @@
         <v>41.4705</v>
       </c>
       <c r="G52" t="n">
-        <v>-378690.52789711</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
+      <c r="I52" t="n">
+        <v>43.64</v>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2131,18 +2283,21 @@
         <v>1704.9704</v>
       </c>
       <c r="G53" t="n">
-        <v>-376985.55749711</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
+      <c r="I53" t="n">
+        <v>43.64</v>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2164,18 +2319,21 @@
         <v>1099.5581</v>
       </c>
       <c r="G54" t="n">
-        <v>-375885.99939711</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
+      <c r="I54" t="n">
+        <v>43.64</v>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2197,18 +2355,21 @@
         <v>17794.939</v>
       </c>
       <c r="G55" t="n">
-        <v>-358091.0603971099</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
+      <c r="I55" t="n">
+        <v>43.64</v>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2230,18 +2391,21 @@
         <v>19351.5285</v>
       </c>
       <c r="G56" t="n">
-        <v>-338739.5318971099</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
+      <c r="I56" t="n">
+        <v>43.64</v>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2263,18 +2427,21 @@
         <v>6013.8019</v>
       </c>
       <c r="G57" t="n">
-        <v>-332725.7299971099</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
+      <c r="I57" t="n">
+        <v>43.64</v>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2296,18 +2463,21 @@
         <v>11377.2623</v>
       </c>
       <c r="G58" t="n">
-        <v>-344102.9922971099</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
+      <c r="I58" t="n">
+        <v>43.64</v>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2329,18 +2499,21 @@
         <v>2414.5283</v>
       </c>
       <c r="G59" t="n">
-        <v>-341688.4639971099</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
+      <c r="I59" t="n">
+        <v>43.64</v>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2362,18 +2535,21 @@
         <v>123.99553571</v>
       </c>
       <c r="G60" t="n">
-        <v>-341564.4684613999</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
+      <c r="I60" t="n">
+        <v>43.64</v>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2395,18 +2571,21 @@
         <v>74.24816217</v>
       </c>
       <c r="G61" t="n">
-        <v>-341490.2202992299</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
-      <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
+      <c r="I61" t="n">
+        <v>43.64</v>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2428,18 +2607,21 @@
         <v>46.77060133</v>
       </c>
       <c r="G62" t="n">
-        <v>-341443.4496978999</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
-      <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
+      <c r="I62" t="n">
+        <v>43.64</v>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2461,18 +2643,21 @@
         <v>49.48775055</v>
       </c>
       <c r="G63" t="n">
-        <v>-341443.4496978999</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
-      <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
+      <c r="I63" t="n">
+        <v>43.64</v>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2494,18 +2679,21 @@
         <v>10000</v>
       </c>
       <c r="G64" t="n">
-        <v>-351443.4496978999</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
+      <c r="I64" t="n">
+        <v>43.64</v>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2527,18 +2715,21 @@
         <v>29121.1792</v>
       </c>
       <c r="G65" t="n">
-        <v>-380564.6288978999</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
-      <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
+      <c r="I65" t="n">
+        <v>43.64</v>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2560,22 +2751,21 @@
         <v>13593.9541</v>
       </c>
       <c r="G66" t="n">
-        <v>-380564.6288978999</v>
-      </c>
-      <c r="H66" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
       <c r="I66" t="n">
-        <v>44.37</v>
-      </c>
-      <c r="J66" t="n">
-        <v>44.37</v>
-      </c>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+        <v>43.64</v>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2597,26 +2787,21 @@
         <v>73899.47380000001</v>
       </c>
       <c r="G67" t="n">
-        <v>-306665.1550979</v>
-      </c>
-      <c r="H67" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
       <c r="I67" t="n">
-        <v>44.37</v>
-      </c>
-      <c r="J67" t="n">
-        <v>44.37</v>
-      </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+        <v>43.64</v>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2638,24 +2823,21 @@
         <v>67404.3435</v>
       </c>
       <c r="G68" t="n">
-        <v>-374069.4985979</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
-      <c r="I68" t="inlineStr"/>
-      <c r="J68" t="n">
-        <v>44.37</v>
-      </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
+      <c r="I68" t="n">
+        <v>43.64</v>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2677,24 +2859,21 @@
         <v>11517.2252</v>
       </c>
       <c r="G69" t="n">
-        <v>-374069.4985979</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="inlineStr"/>
-      <c r="J69" t="n">
-        <v>44.37</v>
-      </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
+      <c r="I69" t="n">
+        <v>43.64</v>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2716,24 +2895,21 @@
         <v>4344.5953</v>
       </c>
       <c r="G70" t="n">
-        <v>-378414.0938979</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
-      <c r="I70" t="inlineStr"/>
-      <c r="J70" t="n">
-        <v>44.37</v>
-      </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
+      <c r="I70" t="n">
+        <v>43.64</v>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2755,24 +2931,21 @@
         <v>60032.7657</v>
       </c>
       <c r="G71" t="n">
-        <v>-318381.3281979</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
-      <c r="I71" t="inlineStr"/>
-      <c r="J71" t="n">
-        <v>44.37</v>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
+      <c r="I71" t="n">
+        <v>43.64</v>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2794,24 +2967,21 @@
         <v>674</v>
       </c>
       <c r="G72" t="n">
-        <v>-318381.3281979</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
-      <c r="I72" t="inlineStr"/>
-      <c r="J72" t="n">
-        <v>44.37</v>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
+      <c r="I72" t="n">
+        <v>43.64</v>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2833,24 +3003,21 @@
         <v>0.1257</v>
       </c>
       <c r="G73" t="n">
-        <v>-318381.3281979</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
-      <c r="I73" t="inlineStr"/>
-      <c r="J73" t="n">
-        <v>44.37</v>
-      </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
+      <c r="I73" t="n">
+        <v>43.64</v>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2872,24 +3039,21 @@
         <v>30</v>
       </c>
       <c r="G74" t="n">
-        <v>-318381.3281979</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
-      <c r="I74" t="inlineStr"/>
-      <c r="J74" t="n">
-        <v>44.37</v>
-      </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
+      <c r="I74" t="n">
+        <v>43.64</v>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2911,24 +3075,21 @@
         <v>10000</v>
       </c>
       <c r="G75" t="n">
-        <v>-318381.3281979</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
-      <c r="I75" t="inlineStr"/>
-      <c r="J75" t="n">
-        <v>44.37</v>
-      </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
+      <c r="I75" t="n">
+        <v>43.64</v>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2950,26 +3111,21 @@
         <v>14423.7219</v>
       </c>
       <c r="G76" t="n">
-        <v>-332805.0500979</v>
-      </c>
-      <c r="H76" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
       <c r="I76" t="n">
-        <v>44.45</v>
-      </c>
-      <c r="J76" t="n">
-        <v>44.37</v>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+        <v>43.64</v>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2991,26 +3147,21 @@
         <v>10407.7781</v>
       </c>
       <c r="G77" t="n">
-        <v>-332805.0500979</v>
-      </c>
-      <c r="H77" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
       <c r="I77" t="n">
-        <v>44.25</v>
-      </c>
-      <c r="J77" t="n">
-        <v>44.37</v>
-      </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+        <v>43.64</v>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3032,26 +3183,21 @@
         <v>10000</v>
       </c>
       <c r="G78" t="n">
-        <v>-322805.0500979</v>
-      </c>
-      <c r="H78" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
       <c r="I78" t="n">
-        <v>44.25</v>
-      </c>
-      <c r="J78" t="n">
-        <v>44.37</v>
-      </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+        <v>43.64</v>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3073,26 +3219,21 @@
         <v>7793.0661</v>
       </c>
       <c r="G79" t="n">
-        <v>-330598.1161979</v>
-      </c>
-      <c r="H79" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
       <c r="I79" t="n">
-        <v>44.43</v>
-      </c>
-      <c r="J79" t="n">
-        <v>44.37</v>
-      </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+        <v>43.64</v>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3114,26 +3255,21 @@
         <v>9870.215099999999</v>
       </c>
       <c r="G80" t="n">
-        <v>-330598.1161979</v>
-      </c>
-      <c r="H80" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
       <c r="I80" t="n">
-        <v>44.38</v>
-      </c>
-      <c r="J80" t="n">
-        <v>44.37</v>
-      </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+        <v>43.64</v>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3155,26 +3291,21 @@
         <v>20000</v>
       </c>
       <c r="G81" t="n">
-        <v>-350598.1161979</v>
-      </c>
-      <c r="H81" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
       <c r="I81" t="n">
-        <v>44.38</v>
-      </c>
-      <c r="J81" t="n">
-        <v>44.37</v>
-      </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+        <v>43.64</v>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3196,26 +3327,21 @@
         <v>2804.8007</v>
       </c>
       <c r="G82" t="n">
-        <v>-353402.9168979</v>
-      </c>
-      <c r="H82" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
       <c r="I82" t="n">
-        <v>43.94</v>
-      </c>
-      <c r="J82" t="n">
-        <v>44.37</v>
-      </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+        <v>43.64</v>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3237,26 +3363,21 @@
         <v>186.1707</v>
       </c>
       <c r="G83" t="n">
-        <v>-353216.7461979</v>
-      </c>
-      <c r="H83" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
       <c r="I83" t="n">
-        <v>43.9</v>
-      </c>
-      <c r="J83" t="n">
-        <v>44.37</v>
-      </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+        <v>43.64</v>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3278,26 +3399,21 @@
         <v>14958.6153</v>
       </c>
       <c r="G84" t="n">
-        <v>-368175.3614979</v>
-      </c>
-      <c r="H84" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
       <c r="I84" t="n">
-        <v>44</v>
-      </c>
-      <c r="J84" t="n">
-        <v>44.37</v>
-      </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+        <v>43.64</v>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3319,26 +3435,21 @@
         <v>10819.78</v>
       </c>
       <c r="G85" t="n">
-        <v>-357355.5814979</v>
-      </c>
-      <c r="H85" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
       <c r="I85" t="n">
-        <v>43.86</v>
-      </c>
-      <c r="J85" t="n">
-        <v>44.37</v>
-      </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+        <v>43.64</v>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3360,26 +3471,21 @@
         <v>1360</v>
       </c>
       <c r="G86" t="n">
-        <v>-355995.5814979</v>
-      </c>
-      <c r="H86" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
       <c r="I86" t="n">
-        <v>44.14</v>
-      </c>
-      <c r="J86" t="n">
-        <v>44.37</v>
-      </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+        <v>43.64</v>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3401,26 +3507,21 @@
         <v>680</v>
       </c>
       <c r="G87" t="n">
-        <v>-355315.5814979</v>
-      </c>
-      <c r="H87" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
       <c r="I87" t="n">
-        <v>44.36</v>
-      </c>
-      <c r="J87" t="n">
-        <v>44.37</v>
-      </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+        <v>43.64</v>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3442,26 +3543,21 @@
         <v>15638.80297286</v>
       </c>
       <c r="G88" t="n">
-        <v>-370954.3844707599</v>
-      </c>
-      <c r="H88" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
       <c r="I88" t="n">
-        <v>44.4</v>
-      </c>
-      <c r="J88" t="n">
-        <v>44.37</v>
-      </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+        <v>43.64</v>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3483,26 +3579,21 @@
         <v>2467.1964</v>
       </c>
       <c r="G89" t="n">
-        <v>-373421.58087076</v>
-      </c>
-      <c r="H89" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
       <c r="I89" t="n">
-        <v>44.27</v>
-      </c>
-      <c r="J89" t="n">
-        <v>44.37</v>
-      </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+        <v>43.64</v>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3524,26 +3615,21 @@
         <v>15725.5028</v>
       </c>
       <c r="G90" t="n">
-        <v>-357696.0780707599</v>
-      </c>
-      <c r="H90" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
       <c r="I90" t="n">
-        <v>44.1</v>
-      </c>
-      <c r="J90" t="n">
-        <v>44.37</v>
-      </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+        <v>43.64</v>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3565,26 +3651,21 @@
         <v>0.0001</v>
       </c>
       <c r="G91" t="n">
-        <v>-357696.0780707599</v>
-      </c>
-      <c r="H91" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
       <c r="I91" t="n">
-        <v>44.13</v>
-      </c>
-      <c r="J91" t="n">
-        <v>44.37</v>
-      </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+        <v>43.64</v>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3606,26 +3687,21 @@
         <v>3350.4018</v>
       </c>
       <c r="G92" t="n">
-        <v>-354345.67627076</v>
-      </c>
-      <c r="H92" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
       <c r="I92" t="n">
-        <v>44.13</v>
-      </c>
-      <c r="J92" t="n">
-        <v>44.37</v>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+        <v>43.64</v>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3647,26 +3723,21 @@
         <v>2500</v>
       </c>
       <c r="G93" t="n">
-        <v>-354345.67627076</v>
-      </c>
-      <c r="H93" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
       <c r="I93" t="n">
-        <v>44.66</v>
-      </c>
-      <c r="J93" t="n">
-        <v>44.37</v>
-      </c>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+        <v>43.64</v>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3688,26 +3759,21 @@
         <v>19.3863</v>
       </c>
       <c r="G94" t="n">
-        <v>-354326.2899707599</v>
-      </c>
-      <c r="H94" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
       <c r="I94" t="n">
-        <v>44.66</v>
-      </c>
-      <c r="J94" t="n">
-        <v>44.37</v>
-      </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+        <v>43.64</v>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3729,26 +3795,21 @@
         <v>19.3863</v>
       </c>
       <c r="G95" t="n">
-        <v>-354345.67627076</v>
-      </c>
-      <c r="H95" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
       <c r="I95" t="n">
-        <v>44.8</v>
-      </c>
-      <c r="J95" t="n">
-        <v>44.37</v>
-      </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+        <v>43.64</v>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3770,26 +3831,21 @@
         <v>125</v>
       </c>
       <c r="G96" t="n">
-        <v>-354220.67627076</v>
-      </c>
-      <c r="H96" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
       <c r="I96" t="n">
-        <v>44.61</v>
-      </c>
-      <c r="J96" t="n">
-        <v>44.37</v>
-      </c>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+        <v>43.64</v>
+      </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3811,26 +3867,21 @@
         <v>142.2971</v>
       </c>
       <c r="G97" t="n">
-        <v>-354078.3791707599</v>
-      </c>
-      <c r="H97" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
       <c r="I97" t="n">
-        <v>44.7</v>
-      </c>
-      <c r="J97" t="n">
-        <v>44.37</v>
-      </c>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+        <v>43.64</v>
+      </c>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3852,26 +3903,21 @@
         <v>2720</v>
       </c>
       <c r="G98" t="n">
-        <v>-351358.3791707599</v>
-      </c>
-      <c r="H98" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
       <c r="I98" t="n">
-        <v>44.89</v>
-      </c>
-      <c r="J98" t="n">
-        <v>44.37</v>
-      </c>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+        <v>43.64</v>
+      </c>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3893,26 +3939,21 @@
         <v>222</v>
       </c>
       <c r="G99" t="n">
-        <v>-351136.3791707599</v>
-      </c>
-      <c r="H99" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
       <c r="I99" t="n">
-        <v>45.06</v>
-      </c>
-      <c r="J99" t="n">
-        <v>44.37</v>
-      </c>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+        <v>43.64</v>
+      </c>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3934,26 +3975,21 @@
         <v>199.1776</v>
       </c>
       <c r="G100" t="n">
-        <v>-350937.2015707599</v>
-      </c>
-      <c r="H100" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
       <c r="I100" t="n">
-        <v>45.07</v>
-      </c>
-      <c r="J100" t="n">
-        <v>44.37</v>
-      </c>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+        <v>43.64</v>
+      </c>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3975,26 +4011,21 @@
         <v>421.1776</v>
       </c>
       <c r="G101" t="n">
-        <v>-351358.3791707599</v>
-      </c>
-      <c r="H101" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
       <c r="I101" t="n">
-        <v>45.1</v>
-      </c>
-      <c r="J101" t="n">
-        <v>44.37</v>
-      </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+        <v>43.64</v>
+      </c>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4016,26 +4047,21 @@
         <v>35505.3414</v>
       </c>
       <c r="G102" t="n">
-        <v>-315853.03777076</v>
-      </c>
-      <c r="H102" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
       <c r="I102" t="n">
-        <v>44.92</v>
-      </c>
-      <c r="J102" t="n">
-        <v>44.37</v>
-      </c>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+        <v>43.64</v>
+      </c>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4057,26 +4083,21 @@
         <v>7997.10305174</v>
       </c>
       <c r="G103" t="n">
-        <v>-307855.93471902</v>
-      </c>
-      <c r="H103" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
       <c r="I103" t="n">
-        <v>45.01</v>
-      </c>
-      <c r="J103" t="n">
-        <v>44.37</v>
-      </c>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+        <v>43.64</v>
+      </c>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4098,26 +4119,21 @@
         <v>13727.85344826</v>
       </c>
       <c r="G104" t="n">
-        <v>-307855.93471902</v>
-      </c>
-      <c r="H104" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
       <c r="I104" t="n">
-        <v>45.22</v>
-      </c>
-      <c r="J104" t="n">
-        <v>44.37</v>
-      </c>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+        <v>43.64</v>
+      </c>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4139,26 +4155,21 @@
         <v>29174.658</v>
       </c>
       <c r="G105" t="n">
-        <v>-278681.27671902</v>
-      </c>
-      <c r="H105" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
       <c r="I105" t="n">
-        <v>45.22</v>
-      </c>
-      <c r="J105" t="n">
-        <v>44.37</v>
-      </c>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+        <v>43.64</v>
+      </c>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4180,26 +4191,21 @@
         <v>23976.4922</v>
       </c>
       <c r="G106" t="n">
-        <v>-254704.78451902</v>
-      </c>
-      <c r="H106" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
       <c r="I106" t="n">
-        <v>45.38</v>
-      </c>
-      <c r="J106" t="n">
-        <v>44.37</v>
-      </c>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+        <v>43.64</v>
+      </c>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4221,26 +4227,21 @@
         <v>4562.8006</v>
       </c>
       <c r="G107" t="n">
-        <v>-259267.58511902</v>
-      </c>
-      <c r="H107" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
       <c r="I107" t="n">
-        <v>45.39</v>
-      </c>
-      <c r="J107" t="n">
-        <v>44.37</v>
-      </c>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+        <v>43.64</v>
+      </c>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4262,26 +4263,21 @@
         <v>39293.3458</v>
       </c>
       <c r="G108" t="n">
-        <v>-259267.58511902</v>
-      </c>
-      <c r="H108" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
       <c r="I108" t="n">
-        <v>45.38</v>
-      </c>
-      <c r="J108" t="n">
-        <v>44.37</v>
-      </c>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+        <v>43.64</v>
+      </c>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4303,24 +4299,21 @@
         <v>36612.2538</v>
       </c>
       <c r="G109" t="n">
-        <v>-295879.83891902</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
-      <c r="I109" t="inlineStr"/>
-      <c r="J109" t="n">
-        <v>44.37</v>
-      </c>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
+      <c r="I109" t="n">
+        <v>43.64</v>
+      </c>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4342,24 +4335,21 @@
         <v>1912.7619</v>
       </c>
       <c r="G110" t="n">
-        <v>-293967.07701902</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
-      <c r="I110" t="inlineStr"/>
-      <c r="J110" t="n">
-        <v>44.37</v>
-      </c>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
+      <c r="I110" t="n">
+        <v>43.64</v>
+      </c>
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4381,24 +4371,21 @@
         <v>12476.7267</v>
       </c>
       <c r="G111" t="n">
-        <v>-281490.35031902</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
-      <c r="I111" t="inlineStr"/>
-      <c r="J111" t="n">
-        <v>44.37</v>
-      </c>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
+      <c r="I111" t="n">
+        <v>43.64</v>
+      </c>
+      <c r="J111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4420,24 +4407,21 @@
         <v>1512.1618</v>
       </c>
       <c r="G112" t="n">
-        <v>-283002.51211902</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
-      <c r="I112" t="inlineStr"/>
-      <c r="J112" t="n">
-        <v>44.37</v>
-      </c>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
+      <c r="I112" t="n">
+        <v>43.64</v>
+      </c>
+      <c r="J112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4459,24 +4443,21 @@
         <v>6075.4363</v>
       </c>
       <c r="G113" t="n">
-        <v>-276927.07581902</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
-      <c r="I113" t="inlineStr"/>
-      <c r="J113" t="n">
-        <v>44.37</v>
-      </c>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
+      <c r="I113" t="n">
+        <v>43.64</v>
+      </c>
+      <c r="J113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4498,24 +4479,21 @@
         <v>1325.9999</v>
       </c>
       <c r="G114" t="n">
-        <v>-278253.07571902</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
-      <c r="I114" t="inlineStr"/>
-      <c r="J114" t="n">
-        <v>44.37</v>
-      </c>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
+      <c r="I114" t="n">
+        <v>43.64</v>
+      </c>
+      <c r="J114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4537,24 +4515,21 @@
         <v>18250.2348</v>
       </c>
       <c r="G115" t="n">
-        <v>-296503.31051902</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
-      <c r="I115" t="inlineStr"/>
-      <c r="J115" t="n">
-        <v>44.37</v>
-      </c>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
+      <c r="I115" t="n">
+        <v>43.64</v>
+      </c>
+      <c r="J115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4576,24 +4551,21 @@
         <v>1471.0163</v>
       </c>
       <c r="G116" t="n">
-        <v>-295032.2942190199</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
-      <c r="I116" t="inlineStr"/>
-      <c r="J116" t="n">
-        <v>44.37</v>
-      </c>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H116" t="inlineStr"/>
+      <c r="I116" t="n">
+        <v>43.64</v>
+      </c>
+      <c r="J116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4615,24 +4587,21 @@
         <v>23599.1844</v>
       </c>
       <c r="G117" t="n">
-        <v>-271433.1098190199</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
-      <c r="I117" t="inlineStr"/>
-      <c r="J117" t="n">
-        <v>44.37</v>
-      </c>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
+      <c r="I117" t="n">
+        <v>43.64</v>
+      </c>
+      <c r="J117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4654,24 +4623,21 @@
         <v>3608.0126</v>
       </c>
       <c r="G118" t="n">
-        <v>-275041.1224190199</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
-      <c r="I118" t="inlineStr"/>
-      <c r="J118" t="n">
-        <v>44.37</v>
-      </c>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
+      <c r="I118" t="n">
+        <v>43.64</v>
+      </c>
+      <c r="J118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4693,24 +4659,21 @@
         <v>5178.3134</v>
       </c>
       <c r="G119" t="n">
-        <v>-280219.4358190199</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
-      <c r="I119" t="inlineStr"/>
-      <c r="J119" t="n">
-        <v>44.37</v>
-      </c>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H119" t="inlineStr"/>
+      <c r="I119" t="n">
+        <v>43.64</v>
+      </c>
+      <c r="J119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4732,24 +4695,21 @@
         <v>12200</v>
       </c>
       <c r="G120" t="n">
-        <v>-268019.4358190199</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I120" t="inlineStr"/>
-      <c r="J120" t="n">
-        <v>44.37</v>
-      </c>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H120" t="inlineStr"/>
+      <c r="I120" t="n">
+        <v>43.64</v>
+      </c>
+      <c r="J120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4771,24 +4731,21 @@
         <v>38568.8922</v>
       </c>
       <c r="G121" t="n">
-        <v>-229450.5436190199</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
-      <c r="I121" t="inlineStr"/>
-      <c r="J121" t="n">
-        <v>44.37</v>
-      </c>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H121" t="inlineStr"/>
+      <c r="I121" t="n">
+        <v>43.64</v>
+      </c>
+      <c r="J121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4810,24 +4767,21 @@
         <v>82477.5864</v>
       </c>
       <c r="G122" t="n">
-        <v>-146972.9572190199</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I122" t="inlineStr"/>
-      <c r="J122" t="n">
-        <v>44.37</v>
-      </c>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H122" t="inlineStr"/>
+      <c r="I122" t="n">
+        <v>43.64</v>
+      </c>
+      <c r="J122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4849,24 +4803,21 @@
         <v>70261.72065218</v>
       </c>
       <c r="G123" t="n">
-        <v>-76711.23656683991</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I123" t="inlineStr"/>
-      <c r="J123" t="n">
-        <v>44.37</v>
-      </c>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H123" t="inlineStr"/>
+      <c r="I123" t="n">
+        <v>43.64</v>
+      </c>
+      <c r="J123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4888,24 +4839,21 @@
         <v>98135.59431086</v>
       </c>
       <c r="G124" t="n">
-        <v>21424.35774402009</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
-      <c r="I124" t="inlineStr"/>
-      <c r="J124" t="n">
-        <v>44.37</v>
-      </c>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H124" t="inlineStr"/>
+      <c r="I124" t="n">
+        <v>43.64</v>
+      </c>
+      <c r="J124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4927,24 +4875,21 @@
         <v>46573.6962759</v>
       </c>
       <c r="G125" t="n">
-        <v>67998.05401992009</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
-      <c r="I125" t="inlineStr"/>
-      <c r="J125" t="n">
-        <v>44.37</v>
-      </c>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H125" t="inlineStr"/>
+      <c r="I125" t="n">
+        <v>43.64</v>
+      </c>
+      <c r="J125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4966,24 +4911,21 @@
         <v>74405.40919999999</v>
       </c>
       <c r="G126" t="n">
-        <v>-6407.355180079903</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I126" t="inlineStr"/>
-      <c r="J126" t="n">
-        <v>44.37</v>
-      </c>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H126" t="inlineStr"/>
+      <c r="I126" t="n">
+        <v>43.64</v>
+      </c>
+      <c r="J126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5005,26 +4947,21 @@
         <v>59003.1558</v>
       </c>
       <c r="G127" t="n">
-        <v>52595.8006199201</v>
-      </c>
-      <c r="H127" t="n">
-        <v>2</v>
-      </c>
-      <c r="I127" t="inlineStr"/>
-      <c r="J127" t="n">
-        <v>44.37</v>
-      </c>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L127" t="n">
-        <v>1.074558260085644</v>
-      </c>
-      <c r="M127" t="n">
-        <v>1.039677047289504</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H127" t="inlineStr"/>
+      <c r="I127" t="n">
+        <v>43.64</v>
+      </c>
+      <c r="J127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5046,18 +4983,23 @@
         <v>113477.80908583</v>
       </c>
       <c r="G128" t="n">
-        <v>-60882.0084659099</v>
-      </c>
-      <c r="H128" t="n">
         <v>2</v>
       </c>
-      <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+      <c r="H128" t="inlineStr"/>
+      <c r="I128" t="n">
+        <v>43.64</v>
+      </c>
+      <c r="J128" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="K128" t="n">
+        <v>1.084138405132906</v>
+      </c>
       <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
+        <v>1.004582951420715</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5079,18 +5021,15 @@
         <v>23800</v>
       </c>
       <c r="G129" t="n">
-        <v>-84682.00846590989</v>
-      </c>
-      <c r="H129" t="n">
         <v>2</v>
       </c>
+      <c r="H129" t="inlineStr"/>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5112,18 +5051,15 @@
         <v>5567.4866</v>
       </c>
       <c r="G130" t="n">
-        <v>-79114.52186590989</v>
-      </c>
-      <c r="H130" t="n">
         <v>2</v>
       </c>
+      <c r="H130" t="inlineStr"/>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
